--- a/artifact/script/web-09.xlsx
+++ b/artifact/script/web-09.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="444">
   <si>
     <t>description</t>
   </si>
@@ -1391,6 +1391,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1851,8 +1854,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,8 +2674,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3650,6 +4147,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3657,7 +4718,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3921,49 +4982,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4288,7 +5439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5500,7 +6651,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60">
@@ -5508,7 +6659,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61">
@@ -5516,7 +6667,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62">
@@ -5524,7 +6675,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -5532,7 +6683,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -5540,7 +6691,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65">
@@ -5548,7 +6699,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5556,7 +6707,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5564,7 +6715,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -5572,7 +6723,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -5580,7 +6731,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -5588,7 +6739,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -5596,7 +6747,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -5604,7 +6755,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -5612,7 +6763,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -5620,7 +6771,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -5628,7 +6779,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -5636,7 +6787,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -5644,7 +6795,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -5652,7 +6803,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
@@ -5660,7 +6811,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -5668,7 +6819,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -5676,7 +6827,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82">
@@ -5684,7 +6835,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -5692,7 +6843,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -5700,7 +6851,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -5708,7 +6859,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -5716,7 +6867,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -5724,7 +6875,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -5732,7 +6883,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -5740,7 +6891,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -5748,7 +6899,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91">
@@ -5756,7 +6907,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -5764,101 +6915,106 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-09.xlsx
+++ b/artifact/script/web-09.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="446">
   <si>
     <t>description</t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2042,8 +2048,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2980,8 +3080,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4711,6 +4964,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4718,7 +5253,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5072,49 +5607,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5439,7 +6019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6539,7 +7119,7 @@
         <v>342</v>
       </c>
       <c r="U45" t="s">
-        <v>213</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46">
@@ -6547,7 +7127,7 @@
         <v>211</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -6555,7 +7135,7 @@
         <v>320</v>
       </c>
       <c r="U47" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6563,7 +7143,7 @@
         <v>339</v>
       </c>
       <c r="U48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -6571,7 +7151,7 @@
         <v>368</v>
       </c>
       <c r="U49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -6579,7 +7159,7 @@
         <v>302</v>
       </c>
       <c r="U50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -6587,7 +7167,7 @@
         <v>356</v>
       </c>
       <c r="U51" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6595,7 +7175,7 @@
         <v>331</v>
       </c>
       <c r="U52" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
@@ -6603,7 +7183,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -6611,7 +7191,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -6619,7 +7199,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -6627,7 +7207,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -6635,7 +7215,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -6643,7 +7223,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -6651,7 +7231,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -6659,7 +7239,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
@@ -6667,7 +7247,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62">
@@ -6675,7 +7255,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
@@ -6683,7 +7263,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -6691,7 +7271,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -6975,46 +7555,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-09.xlsx
+++ b/artifact/script/web-09.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1400,6 +1400,24 @@
   </si>
   <si>
     <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2142,8 +2160,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3233,8 +3533,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5246,6 +6005,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5253,7 +6858,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5652,49 +7257,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6019,7 +7759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6345,6 +8085,9 @@
       <c r="C5" t="s">
         <v>224</v>
       </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
       <c r="E5" t="s">
         <v>336</v>
       </c>
@@ -6438,7 +8181,7 @@
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="W6" t="s">
         <v>180</v>
@@ -6493,6 +8236,9 @@
       <c r="U7" t="s">
         <v>99</v>
       </c>
+      <c r="V7" t="s">
+        <v>451</v>
+      </c>
       <c r="W7" t="s">
         <v>181</v>
       </c>
@@ -6543,6 +8289,9 @@
       <c r="U8" t="s">
         <v>100</v>
       </c>
+      <c r="V8" t="s">
+        <v>175</v>
+      </c>
       <c r="W8" t="s">
         <v>182</v>
       </c>
@@ -6611,7 +8360,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -6646,7 +8395,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -6678,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6706,6 +8455,9 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>93</v>
       </c>
@@ -6856,7 +8608,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -6873,7 +8625,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -6889,6 +8641,9 @@
       <c r="E22" t="s">
         <v>299</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>109</v>
       </c>
@@ -7263,7 +9018,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64">
@@ -7271,7 +9026,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -7279,7 +9034,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -7287,7 +9042,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7295,7 +9050,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7303,7 +9058,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -7311,7 +9066,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -7319,7 +9074,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -7327,7 +9082,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -7335,7 +9090,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -7343,7 +9098,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -7351,7 +9106,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -7359,7 +9114,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -7367,7 +9122,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -7375,7 +9130,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -7383,7 +9138,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -7391,7 +9146,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7399,7 +9154,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -7407,7 +9162,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -7415,7 +9170,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83">
@@ -7423,7 +9178,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
@@ -7431,7 +9186,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -7439,7 +9194,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -7447,7 +9202,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -7455,7 +9210,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -7463,7 +9218,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89">
@@ -7471,7 +9226,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -7479,7 +9234,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -7487,7 +9242,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92">
@@ -7495,111 +9250,116 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>445</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>
